--- a/src/import_dyscyplin/static/import_dyscyplin/xlsx/default.xlsx
+++ b/src/import_dyscyplin/static/import_dyscyplin/xlsx/default.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpasternak/Programowanie/django-bpp/src/import_dyscyplin/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpasternak/Programowanie/django-bpp/src/import_dyscyplin/static/import_dyscyplin/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9692D3-7009-F14B-BE74-CA06152C70DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC82C20-0B52-C04F-BCA4-7001AE91CFE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28520" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="3600" windowWidth="28520" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nauczyciele akad. 05.04.2018" sheetId="1" r:id="rId1"/>
+    <sheet name="TYLKO JEDEN ARKUSZ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nauczyciele akad. 05.04.2018'!$A$1:$G$1340</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'nauczyciele akad. 05.04.2018'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TYLKO JEDEN ARKUSZ'!$A$1:$G$1340</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'TYLKO JEDEN ARKUSZ'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -653,13 +653,13 @@
   <dimension ref="A1:K1341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="22.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="16" customWidth="1"/>
